--- a/outcome/appendix/data/0_impact/Dengue fever.xlsx
+++ b/outcome/appendix/data/0_impact/Dengue fever.xlsx
@@ -409,7 +409,7 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>-553.285335981448</v>
+        <v>-380.573147905796</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -427,7 +427,7 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>-764.374676594152</v>
+        <v>40.3597867715764</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -445,7 +445,7 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>2521.43675404547</v>
+        <v>5011.60503039907</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -463,7 +463,7 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>22638.5164783488</v>
+        <v>23621.9639425989</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -481,7 +481,7 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>23356.5017360269</v>
+        <v>27341.6735220867</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -499,7 +499,7 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>1266.99634042449</v>
+        <v>2007.84236873027</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -517,7 +517,7 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>772.557978021304</v>
+        <v>613.53159616135</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -535,7 +535,7 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>3006.55028760889</v>
+        <v>3388.29814133037</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -553,7 +553,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>3821.29424861889</v>
+        <v>4497.16831081888</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -571,7 +571,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>1645.17837787104</v>
+        <v>1377.570581624</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -589,7 +589,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>-1220.5396976253</v>
+        <v>-1927.91890083675</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -607,7 +607,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>-3158.91303651846</v>
+        <v>-3821.68011301573</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -625,7 +625,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>-2916.0348446857</v>
+        <v>-658.482091370631</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -643,7 +643,7 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4886.78905251647</v>
+        <v>8484.95900653622</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -661,7 +661,7 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>17464.2818602182</v>
+        <v>18533.7358473471</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -679,7 +679,7 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>17305.1369444623</v>
+        <v>9152.53300462388</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -697,7 +697,7 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>-1257.72818183327</v>
+        <v>-1980.55484082974</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
@@ -715,7 +715,7 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>-4778.64668929055</v>
+        <v>-2982.38038904733</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -733,7 +733,7 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>377.867070914051</v>
+        <v>1512.1911318902</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -751,7 +751,7 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>6898.21355003371</v>
+        <v>4685.46356738521</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -769,7 +769,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>11671.7342134609</v>
+        <v>5227.6527984192</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -787,7 +787,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>11233.8240379495</v>
+        <v>8225.92999024113</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -805,7 +805,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>2401.29453699411</v>
+        <v>5682.88016221033</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -823,7 +823,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>-1033.22850882459</v>
+        <v>2841.09347530077</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -841,7 +841,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>-317.698416244726</v>
+        <v>-650.076368886225</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -859,7 +859,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>1203.5405875318</v>
+        <v>-4389.29633668692</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -877,7 +877,7 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>45.6163388103909</v>
+        <v>-4782.55538732593</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -895,7 +895,7 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>-3355.06632907966</v>
+        <v>798.937996560811</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -913,7 +913,7 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>-3338.24705458214</v>
+        <v>13512.9357711272</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -931,7 +931,7 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>7408.40472110066</v>
+        <v>20522.1103039275</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -949,7 +949,7 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>17785.0189109024</v>
+        <v>9743.59034333401</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -967,7 +967,7 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>9757.8807815939</v>
+        <v>2047.17453289122</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -985,7 +985,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>2084.50488688006</v>
+        <v>1633.01344233776</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -1003,7 +1003,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>-1561.54905030397</v>
+        <v>2136.48755878058</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -1021,7 +1021,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>-1845.46961879424</v>
+        <v>2904.57587850989</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -1039,7 +1039,7 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>-1546.67836707281</v>
+        <v>3351.13300470165</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -1057,7 +1057,7 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>184.829257289296</v>
+        <v>2915.76654037997</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -1075,7 +1075,7 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>11770.6210537344</v>
+        <v>3297.10964393121</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
